--- a/QALegend/src/main/resources/QALegend.xlsx
+++ b/QALegend/src/main/resources/QALegend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhila Anakha\eclipse-workspace\QALegend\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhila Anakha\git\repository2\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31F3FD-385D-45DB-AFBC-70E29BDEB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA7B37-7E1B-4C8A-85E4-ED3FB6C79A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="epage" sheetId="2" r:id="rId3"/>
     <sheet name="Resetpage" sheetId="4" r:id="rId4"/>
     <sheet name="Userpage" sheetId="5" r:id="rId5"/>
+    <sheet name="Usermanagementpage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>admin</t>
   </si>
@@ -55,7 +56,13 @@
     <t>abcidg@gmail.com</t>
   </si>
   <si>
-    <t>akhila</t>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Akhila M shaji</t>
+  </si>
+  <si>
+    <t>Users Manage users</t>
   </si>
 </sst>
 </file>
@@ -535,6 +542,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2F34BE-2267-478D-BE28-CBC45023178F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{FDA5F18E-F8D2-4461-8C6E-53FD54970341}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9EEBA-335E-476A-96F5-099D8B1E861D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A540DEFF-4280-4598-AE7C-85282137CD31}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -542,46 +625,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{FDA5F18E-F8D2-4461-8C6E-53FD54970341}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9EEBA-335E-476A-96F5-099D8B1E861D}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>123456</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/QALegend/src/main/resources/QALegend.xlsx
+++ b/QALegend/src/main/resources/QALegend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhila Anakha\git\repository2\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA7B37-7E1B-4C8A-85E4-ED3FB6C79A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C25144F-85A4-4210-8DD3-DAEB1D9041D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -63,13 +63,16 @@
   </si>
   <si>
     <t>Users Manage users</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +101,12 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,11 +129,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,14 +587,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A9EEBA-335E-476A-96F5-099D8B1E861D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -609,6 +620,21 @@
       </c>
       <c r="B2">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
